--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB03A46A-B12C-47D0-9ECB-6E8088735E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A419D5AC-4688-495C-AFEE-B00374C09F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="118">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -159,113 +159,6 @@
     </r>
   </si>
   <si>
-    <t>Observații</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
-  </si>
-  <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
-  </si>
-  <si>
-    <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
-  </si>
-  <si>
-    <t>3. Se aleg doi parametri ai metodei testate şi se definesc condiţii asupra acestora. Condiţiile (constrângerile) rezultă din specificaţii.</t>
-  </si>
-  <si>
-    <t>4. Pentru aceşti parametri se aplică ECP şi BVA. La proiectarea testelor se consideră că parametrii de intrare neinvestigaţi aici au valori valide, adică folosim dummy objects.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exemplu: Parametrii </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> şi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">; Condiţii pentru aceşti parametri de intrare: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> este un string cu lungimea validă de la 1 la 255 caractere; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>year</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> este valid dacă ia valori între 1899 şi 2025.</t>
-    </r>
-  </si>
-  <si>
     <t>EC Identification</t>
   </si>
   <si>
@@ -297,9 +190,6 @@
   </si>
   <si>
     <t>expected</t>
-  </si>
-  <si>
-    <t>record added</t>
   </si>
   <si>
     <t>…</t>
@@ -444,12 +334,6 @@
   </si>
   <si>
     <t>Adaugarea unui task nou cu detaliile: descrierea, data si ora de inceput, data si ora de sfarsit. Daca task-ul este repetitiv, atunci se indica intervalul de timp la care se va repeta, dat ca numar de ore si minute. Task-ul poate fi activ sau nu. Daca se adauga acelasi task de 2 ori, se returneaza eroare.</t>
-  </si>
-  <si>
-    <t>semnatura: save(Task task)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avem metoda save din service care accepta un task </t>
   </si>
   <si>
     <t>semnatura constructor task: new Task(String description, Date startDate, Date endDate, int repeating)</t>
@@ -510,18 +394,6 @@
     <t>1 &lt;= len(description) &lt;= 255</t>
   </si>
   <si>
-    <t xml:space="preserve">len(descritption) = 6 </t>
-  </si>
-  <si>
-    <t>len(description) = 300</t>
-  </si>
-  <si>
-    <t>start = 2002-04-21</t>
-  </si>
-  <si>
-    <t>start  = 2025-04-26</t>
-  </si>
-  <si>
     <t>OHaeBAsLxokgKGTcTl7yKgZ7ysWJ0Ul7ezHeTM5hAW6HmgydGDKOpifQzZ4N4AKmTgtxrl9KhjUSsSsE0QWLVEhzOz4Sofkhme8ZTnm3Nv2QGHLju3kQ9TysjaX3og8uRl55h5SW7w1iXQonxp0XrXFkZ9gKGHhB3aNdo9foXYD43WGznwTvY2XiMfuSMef3GVm7YieRJejtGqte0VCzRGHV2WN1rHQ8DT6vxQMpnssK3e2YTS4aIAykOjHIYleUoBqLQH4J9RHFS6JuVKK2VBJE8RJtu1FFRvKYKQDpaJx2</t>
   </si>
   <si>
@@ -531,12 +403,6 @@
     <t>Error message-Exception thrown</t>
   </si>
   <si>
-    <t>start is in [1970, 2024]</t>
-  </si>
-  <si>
-    <t>description is String, length in [1,255]</t>
-  </si>
-  <si>
     <t>length = 0, description = ""</t>
   </si>
   <si>
@@ -600,32 +466,75 @@
     <t>desc</t>
   </si>
   <si>
-    <t>works normal</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>work normal</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>missing validation</t>
-  </si>
-  <si>
-    <t>validated the entites before save</t>
-  </si>
-  <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>start &lt; 1970-01-01</t>
+  </si>
+  <si>
+    <t>start  &gt; 2024-12-31</t>
+  </si>
+  <si>
+    <t>len(description) &lt; 1</t>
+  </si>
+  <si>
+    <t>len(description) &gt; 255</t>
+  </si>
+  <si>
+    <t>record created</t>
+  </si>
+  <si>
+    <t>recored created</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>F01.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> task = new Task(String description, Date start, Date end, Int repeat)</t>
+    </r>
+  </si>
+  <si>
+    <t>avem metoda care creeaza un task</t>
+  </si>
+  <si>
+    <t>description is String, length in (0,256)</t>
+  </si>
+  <si>
+    <t>start is in (1969-12-31, 2025-01-01)</t>
+  </si>
+  <si>
+    <t>TC2_BVA</t>
+  </si>
+  <si>
+    <t>error message</t>
+  </si>
+  <si>
+    <t>task created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,21 +573,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color indexed="30"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -774,12 +668,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1260,9 +1148,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1270,91 +1158,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1363,28 +1262,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1405,34 +1304,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1450,76 +1349,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1534,100 +1433,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2029,10 +1937,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2046,12 +1954,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
       <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
@@ -2059,11 +1967,11 @@
       <c r="J1" s="32"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -2079,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2">
         <v>236</v>
@@ -2090,19 +1998,19 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2">
         <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2">
         <v>236</v>
@@ -2171,118 +2079,43 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
-        <v>15</v>
+      <c r="B18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B19" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="31"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
-      <c r="B24" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="31"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="95" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>78</v>
+      <c r="B26" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B24:N24"/>
+  <mergeCells count="2">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H2:J2"/>
   </mergeCells>
@@ -2296,17 +2129,17 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:N22"/>
+  <dimension ref="B1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="5.88671875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
@@ -2320,343 +2153,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="B3" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="G5" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="B5" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="G5" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="N6" s="51"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="141">
+        <v>1</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="139"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="141">
+        <v>2</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="141">
+        <v>3</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="62"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="48"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="45"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="96">
-        <v>45262</v>
-      </c>
-      <c r="K8" s="96">
-        <v>45379</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="41"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="101">
-        <v>45028</v>
-      </c>
-      <c r="K9" s="101">
-        <v>45379</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="43"/>
+      <c r="N9" s="48"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="B10" s="141">
         <v>4</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="54" t="s">
+        <v>77</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="14">
+        <v>105</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="141">
+        <v>5</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="99">
+        <v>45262</v>
+      </c>
+      <c r="K11" s="99">
+        <v>45379</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="44"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="141">
+        <v>6</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
         <v>3</v>
       </c>
-      <c r="H10" s="97">
-        <v>3</v>
-      </c>
-      <c r="I10" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="98">
-        <v>37367</v>
-      </c>
-      <c r="K10" s="98">
+      <c r="I12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="104">
+        <v>45028</v>
+      </c>
+      <c r="K12" s="104">
         <v>45379</v>
       </c>
-      <c r="L10" s="97">
+      <c r="L12" s="9">
         <v>1</v>
       </c>
-      <c r="M10" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="100"/>
-    </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="10">
-        <v>4</v>
-      </c>
-      <c r="H11" s="9">
-        <v>4</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="101">
-        <v>45773</v>
-      </c>
-      <c r="K11" s="101">
-        <v>45379</v>
-      </c>
-      <c r="L11" s="9">
-        <v>1</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="43"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
-        <v>6</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
+      <c r="M12" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="46"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="141">
         <v>7</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>34</v>
+      <c r="C13" s="54" t="s">
+        <v>26</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="G13" s="14">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="101">
+        <v>37367</v>
+      </c>
+      <c r="K13" s="101">
+        <v>45379</v>
+      </c>
+      <c r="L13" s="100">
+        <v>1</v>
+      </c>
+      <c r="M13" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="103"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="141">
         <v>8</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
+      <c r="G14" s="10">
+        <v>4</v>
+      </c>
+      <c r="H14" s="9">
+        <v>6</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="104">
+        <v>45773</v>
+      </c>
+      <c r="K14" s="104">
+        <v>45379</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="B15" s="141">
         <v>9</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>34</v>
+      <c r="C15" s="53" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="46"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+      <c r="B16" s="141">
         <v>10</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="B17" s="141">
         <v>11</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>34</v>
+      <c r="C17" s="53" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+      <c r="B18" s="141">
         <v>12</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="141">
+        <v>13</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
+      <c r="B20" s="141">
+        <v>14</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F22" s="33"/>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:N5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="H6:H9"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2668,7 +2548,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:N15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2690,113 +2570,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="B3" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
+      <c r="G5" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
     </row>
     <row r="6" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="64"/>
+      <c r="G6" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="67"/>
     </row>
     <row r="7" spans="2:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="51">
+      <c r="B7" s="54">
         <v>1</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>97</v>
+      <c r="C7" s="71" t="s">
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="47"/>
+        <v>82</v>
+      </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="48"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="70"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="O7" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="45"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -2804,32 +2684,30 @@
       <c r="H8" s="11">
         <v>1</v>
       </c>
-      <c r="I8" s="12">
-        <v>1</v>
-      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="K8" s="9"/>
-      <c r="L8" s="101">
+      <c r="L8" s="104">
         <v>37367</v>
       </c>
-      <c r="M8" s="101">
+      <c r="M8" s="104">
         <v>45657</v>
       </c>
       <c r="N8" s="9">
         <v>1</v>
       </c>
-      <c r="O8" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="P8" s="43"/>
+      <c r="O8" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="46"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G9" s="14">
         <v>2</v>
@@ -2837,34 +2715,32 @@
       <c r="H9" s="8">
         <v>2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="105">
+        <v>37368</v>
+      </c>
+      <c r="M9" s="105">
+        <v>45657</v>
+      </c>
+      <c r="N9" s="21">
         <v>1</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="O9" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="102">
-        <v>37368</v>
-      </c>
-      <c r="M9" s="102">
-        <v>45657</v>
-      </c>
-      <c r="N9" s="20">
-        <v>1</v>
-      </c>
-      <c r="O9" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="61"/>
+      <c r="P9" s="64"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="52"/>
-      <c r="C10" s="70"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G10" s="10">
         <v>3</v>
@@ -2872,38 +2748,36 @@
       <c r="H10" s="11">
         <v>3</v>
       </c>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
+      <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="101">
+        <v>91</v>
+      </c>
+      <c r="L10" s="104">
         <v>37369</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10" s="104">
         <v>45657</v>
       </c>
       <c r="N10" s="9">
         <v>1</v>
       </c>
-      <c r="O10" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="P10" s="43"/>
+      <c r="O10" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" s="46"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="51">
+      <c r="B11" s="54">
         <v>2</v>
       </c>
-      <c r="C11" s="68" t="s">
-        <v>96</v>
+      <c r="C11" s="71" t="s">
+        <v>114</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G11" s="14">
         <v>4</v>
@@ -2911,34 +2785,32 @@
       <c r="H11" s="8">
         <v>4</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="105">
+        <v>37370</v>
+      </c>
+      <c r="M11" s="105">
+        <v>45657</v>
+      </c>
+      <c r="N11" s="21">
         <v>1</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="O11" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="102">
-        <v>37370</v>
-      </c>
-      <c r="M11" s="102">
-        <v>45657</v>
-      </c>
-      <c r="N11" s="20">
-        <v>1</v>
-      </c>
-      <c r="O11" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="61"/>
+      <c r="P11" s="64"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="G12" s="10">
         <v>5</v>
@@ -2946,34 +2818,32 @@
       <c r="H12" s="11">
         <v>5</v>
       </c>
-      <c r="I12" s="12">
-        <v>2</v>
-      </c>
+      <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="101">
+        <v>74</v>
+      </c>
+      <c r="L12" s="104">
         <v>25568</v>
       </c>
-      <c r="M12" s="101">
+      <c r="M12" s="104">
         <v>45657</v>
       </c>
       <c r="N12" s="9">
         <v>1</v>
       </c>
-      <c r="O12" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="P12" s="43"/>
+      <c r="O12" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="46"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
-      <c r="C13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="G13" s="14">
         <v>6</v>
@@ -2981,34 +2851,32 @@
       <c r="H13" s="8">
         <v>6</v>
       </c>
-      <c r="I13" s="7">
-        <v>2</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="105">
+        <v>25569</v>
+      </c>
+      <c r="M13" s="105">
+        <v>45657</v>
+      </c>
+      <c r="N13" s="21">
+        <v>1</v>
+      </c>
+      <c r="O13" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="102">
-        <v>25569</v>
-      </c>
-      <c r="M13" s="102">
-        <v>45657</v>
-      </c>
-      <c r="N13" s="20">
-        <v>1</v>
-      </c>
-      <c r="O13" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="61"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="52"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G14" s="10">
         <v>7</v>
@@ -3016,38 +2884,36 @@
       <c r="H14" s="11">
         <v>7</v>
       </c>
-      <c r="I14" s="12">
-        <v>2</v>
-      </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="101">
+        <v>74</v>
+      </c>
+      <c r="L14" s="104">
         <v>45657</v>
       </c>
-      <c r="M14" s="101">
+      <c r="M14" s="104">
         <v>45657</v>
       </c>
       <c r="N14" s="9">
         <v>1</v>
       </c>
-      <c r="O14" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="P14" s="43"/>
+      <c r="O14" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="46"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="51">
+      <c r="B15" s="54">
         <v>3</v>
       </c>
-      <c r="C15" s="68" t="s">
-        <v>34</v>
+      <c r="C15" s="71" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G15" s="14">
         <v>8</v>
@@ -3055,34 +2921,32 @@
       <c r="H15" s="8">
         <v>8</v>
       </c>
-      <c r="I15" s="7">
-        <v>2</v>
-      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="105">
+        <v>45658</v>
+      </c>
+      <c r="M15" s="105">
+        <v>45657</v>
+      </c>
+      <c r="N15" s="21">
+        <v>1</v>
+      </c>
+      <c r="O15" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="102">
-        <v>45658</v>
-      </c>
-      <c r="M15" s="102">
-        <v>45657</v>
-      </c>
-      <c r="N15" s="20">
-        <v>1</v>
-      </c>
-      <c r="O15" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="61"/>
+      <c r="P15" s="64"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G16" s="14">
         <v>9</v>
@@ -3090,18 +2954,18 @@
       <c r="H16" s="8"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="61"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="64"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G17" s="14">
         <v>10</v>
@@ -3109,18 +2973,18 @@
       <c r="H17" s="8"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="61"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="64"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G18" s="14">
         <v>11</v>
@@ -3128,18 +2992,18 @@
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="61"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="64"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G19" s="14">
         <v>12</v>
@@ -3147,81 +3011,81 @@
       <c r="H19" s="8"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="61"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="64"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
-      <c r="C20" s="70"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="51">
+      <c r="B21" s="54">
         <v>4</v>
       </c>
-      <c r="C21" s="68" t="s">
-        <v>34</v>
+      <c r="C21" s="71" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="67"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="67"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="52"/>
-      <c r="C26" s="70"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="27"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="27"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -3272,8 +3136,8 @@
   </sheetPr>
   <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3290,435 +3154,438 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
+      <c r="B3" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="49"/>
+      <c r="B4" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="87"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="16" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="124" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="119">
+      <c r="C6" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="122">
         <v>45262</v>
       </c>
-      <c r="H6" s="119">
+      <c r="H6" s="122">
         <v>45379</v>
       </c>
-      <c r="I6" s="112">
+      <c r="I6" s="115">
         <v>1</v>
       </c>
-      <c r="J6" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="112" t="s">
-        <v>122</v>
+      <c r="J6" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="115" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="125" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="121">
+      <c r="C7" s="88"/>
+      <c r="D7" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="124">
         <v>45028</v>
       </c>
-      <c r="H7" s="121">
+      <c r="H7" s="124">
         <v>45379</v>
       </c>
-      <c r="I7" s="120">
+      <c r="I7" s="123">
         <v>1</v>
       </c>
-      <c r="J7" s="120" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="135" t="s">
-        <v>122</v>
+      <c r="J7" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="138" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <v>3</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="117">
+      <c r="C8" s="88"/>
+      <c r="D8" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="116" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="120">
         <v>37367</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="120">
         <v>45379</v>
       </c>
-      <c r="I8" s="113">
+      <c r="I8" s="116">
         <v>1</v>
       </c>
-      <c r="J8" s="113" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="112" t="s">
-        <v>122</v>
+      <c r="J8" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <v>4</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="121">
+      <c r="C9" s="88"/>
+      <c r="D9" s="128" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="124">
         <v>45773</v>
       </c>
-      <c r="H9" s="121">
+      <c r="H9" s="124">
         <v>45379</v>
       </c>
-      <c r="I9" s="120">
+      <c r="I9" s="123">
         <v>1</v>
       </c>
-      <c r="J9" s="120" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="135" t="s">
-        <v>122</v>
+      <c r="J9" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="138" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="15">
         <v>5</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="103" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="120"/>
-      <c r="G10" s="121">
+      <c r="C10" s="88"/>
+      <c r="D10" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124">
         <v>37367</v>
       </c>
-      <c r="H10" s="121">
+      <c r="H10" s="124">
         <v>45657</v>
       </c>
-      <c r="I10" s="120">
+      <c r="I10" s="123">
         <v>1</v>
       </c>
-      <c r="J10" s="120" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="135" t="s">
-        <v>122</v>
+      <c r="J10" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="138" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <v>6</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="103" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="114" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="117">
+      <c r="C11" s="88"/>
+      <c r="D11" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="120">
         <v>37368</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="120">
         <v>45657</v>
       </c>
-      <c r="I11" s="113">
+      <c r="I11" s="116">
         <v>1</v>
       </c>
-      <c r="J11" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="K11" s="112" t="s">
-        <v>122</v>
+      <c r="J11" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="115" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="15">
         <v>7</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="103" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="120" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="121">
+      <c r="C12" s="88"/>
+      <c r="D12" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="123" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="124">
         <v>37369</v>
       </c>
-      <c r="H12" s="121">
+      <c r="H12" s="124">
         <v>45657</v>
       </c>
-      <c r="I12" s="120">
+      <c r="I12" s="123">
         <v>1</v>
       </c>
-      <c r="J12" s="120" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" s="135" t="s">
-        <v>122</v>
+      <c r="J12" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="138" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15">
         <v>8</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="118">
+      <c r="C13" s="88"/>
+      <c r="D13" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="130" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="121">
         <v>37370</v>
       </c>
-      <c r="H13" s="118">
+      <c r="H13" s="121">
         <v>45657</v>
       </c>
-      <c r="I13" s="115">
+      <c r="I13" s="118">
         <v>1</v>
       </c>
-      <c r="J13" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="112" t="s">
-        <v>122</v>
+      <c r="J13" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="115" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15">
         <v>9</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="123" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="123" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="122">
+      <c r="C14" s="88"/>
+      <c r="D14" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="126" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="125">
         <v>25568</v>
       </c>
-      <c r="H14" s="122">
+      <c r="H14" s="125">
         <v>45657</v>
       </c>
-      <c r="I14" s="123">
+      <c r="I14" s="126">
         <v>1</v>
       </c>
       <c r="J14" s="123" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" s="135" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="K14" s="138" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="15">
         <v>10</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="115" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="118">
+      <c r="C15" s="88"/>
+      <c r="D15" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="121">
         <v>25569</v>
       </c>
-      <c r="H15" s="118">
+      <c r="H15" s="121">
         <v>45657</v>
       </c>
-      <c r="I15" s="115">
+      <c r="I15" s="118">
         <v>1</v>
       </c>
-      <c r="J15" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" s="112" t="s">
-        <v>122</v>
+      <c r="J15" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="115" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="15">
         <v>11</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="123" t="s">
+      <c r="C16" s="88"/>
+      <c r="D16" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="126" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="125">
+        <v>45657</v>
+      </c>
+      <c r="H16" s="125">
+        <v>45657</v>
+      </c>
+      <c r="I16" s="126">
+        <v>1</v>
+      </c>
+      <c r="J16" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="123" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="122">
-        <v>45657</v>
-      </c>
-      <c r="H16" s="122">
-        <v>45657</v>
-      </c>
-      <c r="I16" s="123">
-        <v>1</v>
-      </c>
-      <c r="J16" s="123" t="s">
-        <v>120</v>
-      </c>
-      <c r="K16" s="135" t="s">
-        <v>122</v>
+      <c r="K16" s="138" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="15">
         <v>12</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="104" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="127" t="s">
+      <c r="C17" s="89"/>
+      <c r="D17" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="131">
+        <v>45658</v>
+      </c>
+      <c r="H17" s="131">
+        <v>45657</v>
+      </c>
+      <c r="I17" s="130">
+        <v>1</v>
+      </c>
+      <c r="J17" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="127" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="128">
-        <v>45658</v>
-      </c>
-      <c r="H17" s="128">
-        <v>45657</v>
-      </c>
-      <c r="I17" s="127">
-        <v>1</v>
-      </c>
-      <c r="J17" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" s="112" t="s">
-        <v>122</v>
+      <c r="K17" s="115" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3738,7 +3605,7 @@
     </row>
     <row r="19" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
@@ -3748,141 +3615,141 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="110"/>
+    </row>
+    <row r="22" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="24" t="s">
+      <c r="H22" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="107"/>
-    </row>
-    <row r="22" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="N22" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="O22" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="73" t="s">
-        <v>65</v>
+      <c r="I22" s="83"/>
+      <c r="J22" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" s="76" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="73"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="76"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="23">
+      <c r="B24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="24">
         <v>12</v>
       </c>
-      <c r="D24" s="129">
+      <c r="D24" s="132">
         <v>6</v>
       </c>
-      <c r="E24" s="129">
+      <c r="E24" s="132">
         <v>6</v>
       </c>
-      <c r="F24" s="130" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="131" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" s="133"/>
-      <c r="J24" s="129">
+      <c r="F24" s="133">
+        <v>1</v>
+      </c>
+      <c r="G24" s="134">
+        <v>1</v>
+      </c>
+      <c r="H24" s="135" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="136"/>
+      <c r="J24" s="132">
         <v>6</v>
       </c>
-      <c r="K24" s="129">
+      <c r="K24" s="132">
         <v>6</v>
       </c>
-      <c r="L24" s="130">
+      <c r="L24" s="133">
         <v>0</v>
       </c>
-      <c r="M24" s="134" t="s">
-        <v>125</v>
-      </c>
-      <c r="N24" s="129">
+      <c r="M24" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" s="132">
         <v>6</v>
       </c>
-      <c r="O24" s="129">
+      <c r="O24" s="132">
         <v>6</v>
       </c>
-      <c r="P24" s="130">
+      <c r="P24" s="133">
         <v>0</v>
       </c>
     </row>
